--- a/biology/Botanique/Tillandsia_hahnii/Tillandsia_hahnii.xlsx
+++ b/biology/Botanique/Tillandsia_hahnii/Tillandsia_hahnii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia hahnii Mez est une plante de la famille des Bromeliaceae.
 Le terme hahnii est une dédicace à Mr Hahn, collecteur de la plante.
@@ -512,12 +524,14 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia hahnii Mez in C.DC., Monogr. Phan. 9: 690, n° 30 (1896)
-Diagnose originale[1] :
+Diagnose originale :
 « foliis verisimiliter subpaucis utriculatim rosulatis, utrinque sed praesertim subtus dense lepidibus minutis adpressisque, pallidis praeditis; inflorescentia bipinnatim panniculata[sic] basi interrupta apice densissima, e spicis flabellatis, 4-5-floris, quam bracteae primariae multo brevioribus composita ; bracteolis florigeris dense imbricatis, dorso subglabris et non nisi minute venosis, haud carinatis, sepala aequantibus v. iis minute brevioribus; floribus erectis ; sepalis antico libero posticis binis ad 5 mm. connatis, obtusis ; petalis tubulose erectis quam genitalia brevioribus. »
-Type : leg. Hahn ; « Mexico, loco ignoto » ; Herb. Paris[1].
+Type : leg. Hahn ; « Mexico, loco ignoto » ; Herb. Paris.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(aucune)</t>
         </is>
@@ -577,6 +593,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,7 +620,9 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Biotype : plante herbacée en rosette acaule monocarpique vivace par ses rejets latéraux.
 Habitat : ?
@@ -634,10 +654,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Amérique centrale :
- Mexique[1]</t>
+ Mexique</t>
         </is>
       </c>
     </row>
@@ -666,6 +688,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
